--- a/DECISION/국장_조선_분석.xlsx
+++ b/DECISION/국장_조선_분석.xlsx
@@ -49,7 +49,7 @@
     <t>판단</t>
   </si>
   <si>
-    <t>2025-11-27</t>
+    <t>2025-11-28</t>
   </si>
   <si>
     <t>HDKSOE</t>

--- a/DECISION/국장_조선_분석.xlsx
+++ b/DECISION/국장_조선_분석.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="28">
   <si>
     <t>날짜</t>
   </si>
@@ -34,52 +34,70 @@
     <t>5일수익률</t>
   </si>
   <si>
-    <t>점수</t>
-  </si>
-  <si>
-    <t>3일확률</t>
-  </si>
-  <si>
-    <t>5일확률</t>
-  </si>
-  <si>
-    <t>10일확률</t>
+    <t>점수(룰)</t>
+  </si>
+  <si>
+    <t>3일상승확률(%)</t>
+  </si>
+  <si>
+    <t>5일상승확률(%)</t>
+  </si>
+  <si>
+    <t>10일상승확률(%)</t>
+  </si>
+  <si>
+    <t>최종점수</t>
+  </si>
+  <si>
+    <t>예측방식</t>
   </si>
   <si>
     <t>판단</t>
   </si>
   <si>
-    <t>2025-11-28</t>
+    <t>MACRO_SCORE</t>
+  </si>
+  <si>
+    <t>MACRO_SIGNAL</t>
+  </si>
+  <si>
+    <t>2025-11-29</t>
+  </si>
+  <si>
+    <t>SamsungHvyInd</t>
+  </si>
+  <si>
+    <t>Hanwha Ocean</t>
   </si>
   <si>
     <t>HDKSOE</t>
   </si>
   <si>
-    <t>SamsungHvyInd</t>
-  </si>
-  <si>
     <t>HD HYUNDAI MIPO</t>
   </si>
   <si>
-    <t>Hanwha Ocean</t>
+    <t>010140.KS</t>
+  </si>
+  <si>
+    <t>042660.KS</t>
   </si>
   <si>
     <t>009540.KS</t>
   </si>
   <si>
-    <t>010140.KS</t>
-  </si>
-  <si>
     <t>010620.KS</t>
   </si>
   <si>
-    <t>042660.KS</t>
-  </si>
-  <si>
-    <t>건드리지 말기</t>
-  </si>
-  <si>
-    <t>바닥권 → 분할매수 준비</t>
+    <t>Pattern</t>
+  </si>
+  <si>
+    <t>📈 매수 관찰 구간입니다.</t>
+  </si>
+  <si>
+    <t>⛔ 관망하십시오.</t>
+  </si>
+  <si>
+    <t>🟢 완화적 (상승 우위)</t>
   </si>
 </sst>
 </file>
@@ -437,13 +455,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K5"/>
+  <dimension ref="A1:O5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -477,145 +495,193 @@
       <c r="K1" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>14</v>
+      </c>
     </row>
-    <row r="2" spans="1:11">
+    <row r="2" spans="1:15">
       <c r="A2" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B2" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C2" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="D2">
-        <v>427000</v>
-      </c>
-      <c r="E2">
-        <v>54.3</v>
+        <v>24600</v>
       </c>
       <c r="F2">
-        <v>-1.5</v>
+        <v>-2.96</v>
       </c>
       <c r="G2">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="H2">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="I2">
-        <v>53</v>
+        <v>80</v>
       </c>
       <c r="J2">
+        <v>90</v>
+      </c>
+      <c r="K2">
+        <v>60.6</v>
+      </c>
+      <c r="L2" t="s">
+        <v>24</v>
+      </c>
+      <c r="M2" t="s">
+        <v>25</v>
+      </c>
+      <c r="N2">
+        <v>85.36763896678245</v>
+      </c>
+      <c r="O2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
+      <c r="A3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D3">
+        <v>107800</v>
+      </c>
+      <c r="F3">
+        <v>-10.02</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>63</v>
+      </c>
+      <c r="I3">
         <v>73</v>
       </c>
-      <c r="K2" t="s">
-        <v>20</v>
+      <c r="J3">
+        <v>83</v>
+      </c>
+      <c r="K3">
+        <v>54.8</v>
+      </c>
+      <c r="L3" t="s">
+        <v>24</v>
+      </c>
+      <c r="M3" t="s">
+        <v>26</v>
+      </c>
+      <c r="N3">
+        <v>85.36763896678245</v>
+      </c>
+      <c r="O3" t="s">
+        <v>27</v>
       </c>
     </row>
-    <row r="3" spans="1:11">
-      <c r="A3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D3">
-        <v>25300</v>
-      </c>
-      <c r="E3">
-        <v>42.2</v>
-      </c>
-      <c r="F3">
-        <v>-4.35</v>
-      </c>
-      <c r="G3">
-        <v>20</v>
-      </c>
-      <c r="H3">
+    <row r="4" spans="1:15">
+      <c r="A4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D4">
+        <v>410000</v>
+      </c>
+      <c r="F4">
+        <v>-2.38</v>
+      </c>
+      <c r="G4">
+        <v>10</v>
+      </c>
+      <c r="H4">
         <v>70</v>
-      </c>
-      <c r="I3">
-        <v>76</v>
-      </c>
-      <c r="J3">
-        <v>90</v>
-      </c>
-      <c r="K3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11">
-      <c r="A4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C4" t="s">
-        <v>18</v>
-      </c>
-      <c r="D4">
-        <v>223000</v>
-      </c>
-      <c r="E4">
-        <v>59.6</v>
-      </c>
-      <c r="F4">
-        <v>-1.76</v>
-      </c>
-      <c r="G4">
-        <v>20</v>
-      </c>
-      <c r="H4">
-        <v>50</v>
       </c>
       <c r="I4">
         <v>56</v>
       </c>
       <c r="J4">
-        <v>63</v>
-      </c>
-      <c r="K4" t="s">
-        <v>20</v>
+        <v>80</v>
+      </c>
+      <c r="K4">
+        <v>51</v>
+      </c>
+      <c r="L4" t="s">
+        <v>24</v>
+      </c>
+      <c r="M4" t="s">
+        <v>26</v>
+      </c>
+      <c r="N4">
+        <v>85.36763896678245</v>
+      </c>
+      <c r="O4" t="s">
+        <v>27</v>
       </c>
     </row>
-    <row r="5" spans="1:11">
+    <row r="5" spans="1:15">
       <c r="A5" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B5" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="C5" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="D5">
-        <v>110500</v>
-      </c>
-      <c r="E5">
-        <v>29.3</v>
+        <v>223000</v>
       </c>
       <c r="F5">
-        <v>-11.6</v>
+        <v>-4.09</v>
       </c>
       <c r="G5">
         <v>10</v>
       </c>
       <c r="H5">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="I5">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="J5">
-        <v>76</v>
-      </c>
-      <c r="K5" t="s">
-        <v>21</v>
+        <v>73</v>
+      </c>
+      <c r="K5">
+        <v>48.6</v>
+      </c>
+      <c r="L5" t="s">
+        <v>24</v>
+      </c>
+      <c r="M5" t="s">
+        <v>26</v>
+      </c>
+      <c r="N5">
+        <v>85.36763896678245</v>
+      </c>
+      <c r="O5" t="s">
+        <v>27</v>
       </c>
     </row>
   </sheetData>

--- a/DECISION/국장_조선_분석.xlsx
+++ b/DECISION/국장_조선_분석.xlsx
@@ -537,7 +537,7 @@
         <v>90</v>
       </c>
       <c r="K2">
-        <v>60.6</v>
+        <v>60.8</v>
       </c>
       <c r="L2" t="s">
         <v>24</v>
@@ -546,7 +546,7 @@
         <v>25</v>
       </c>
       <c r="N2">
-        <v>85.36763896678245</v>
+        <v>85.96878041621773</v>
       </c>
       <c r="O2" t="s">
         <v>27</v>
@@ -581,7 +581,7 @@
         <v>83</v>
       </c>
       <c r="K3">
-        <v>54.8</v>
+        <v>55</v>
       </c>
       <c r="L3" t="s">
         <v>24</v>
@@ -590,7 +590,7 @@
         <v>26</v>
       </c>
       <c r="N3">
-        <v>85.36763896678245</v>
+        <v>85.96878041621773</v>
       </c>
       <c r="O3" t="s">
         <v>27</v>
@@ -625,7 +625,7 @@
         <v>80</v>
       </c>
       <c r="K4">
-        <v>51</v>
+        <v>51.2</v>
       </c>
       <c r="L4" t="s">
         <v>24</v>
@@ -634,7 +634,7 @@
         <v>26</v>
       </c>
       <c r="N4">
-        <v>85.36763896678245</v>
+        <v>85.96878041621773</v>
       </c>
       <c r="O4" t="s">
         <v>27</v>
@@ -669,7 +669,7 @@
         <v>73</v>
       </c>
       <c r="K5">
-        <v>48.6</v>
+        <v>48.8</v>
       </c>
       <c r="L5" t="s">
         <v>24</v>
@@ -678,7 +678,7 @@
         <v>26</v>
       </c>
       <c r="N5">
-        <v>85.36763896678245</v>
+        <v>85.96878041621773</v>
       </c>
       <c r="O5" t="s">
         <v>27</v>

--- a/DECISION/국장_조선_분석.xlsx
+++ b/DECISION/국장_조선_분석.xlsx
@@ -546,7 +546,7 @@
         <v>25</v>
       </c>
       <c r="N2">
-        <v>85.96878041621773</v>
+        <v>85.83574689470727</v>
       </c>
       <c r="O2" t="s">
         <v>27</v>
@@ -590,7 +590,7 @@
         <v>26</v>
       </c>
       <c r="N3">
-        <v>85.96878041621773</v>
+        <v>85.83574689470727</v>
       </c>
       <c r="O3" t="s">
         <v>27</v>
@@ -634,7 +634,7 @@
         <v>26</v>
       </c>
       <c r="N4">
-        <v>85.96878041621773</v>
+        <v>85.83574689470727</v>
       </c>
       <c r="O4" t="s">
         <v>27</v>
@@ -678,7 +678,7 @@
         <v>26</v>
       </c>
       <c r="N5">
-        <v>85.96878041621773</v>
+        <v>85.83574689470727</v>
       </c>
       <c r="O5" t="s">
         <v>27</v>

--- a/DECISION/국장_조선_분석.xlsx
+++ b/DECISION/국장_조선_분석.xlsx
@@ -537,7 +537,7 @@
         <v>90</v>
       </c>
       <c r="K2">
-        <v>60.8</v>
+        <v>60.7</v>
       </c>
       <c r="L2" t="s">
         <v>24</v>
@@ -546,7 +546,7 @@
         <v>25</v>
       </c>
       <c r="N2">
-        <v>85.83574689470727</v>
+        <v>85.82376350509293</v>
       </c>
       <c r="O2" t="s">
         <v>27</v>
@@ -581,7 +581,7 @@
         <v>83</v>
       </c>
       <c r="K3">
-        <v>55</v>
+        <v>54.9</v>
       </c>
       <c r="L3" t="s">
         <v>24</v>
@@ -590,7 +590,7 @@
         <v>26</v>
       </c>
       <c r="N3">
-        <v>85.83574689470727</v>
+        <v>85.82376350509293</v>
       </c>
       <c r="O3" t="s">
         <v>27</v>
@@ -625,7 +625,7 @@
         <v>80</v>
       </c>
       <c r="K4">
-        <v>51.2</v>
+        <v>51.1</v>
       </c>
       <c r="L4" t="s">
         <v>24</v>
@@ -634,7 +634,7 @@
         <v>26</v>
       </c>
       <c r="N4">
-        <v>85.83574689470727</v>
+        <v>85.82376350509293</v>
       </c>
       <c r="O4" t="s">
         <v>27</v>
@@ -669,7 +669,7 @@
         <v>73</v>
       </c>
       <c r="K5">
-        <v>48.8</v>
+        <v>48.7</v>
       </c>
       <c r="L5" t="s">
         <v>24</v>
@@ -678,7 +678,7 @@
         <v>26</v>
       </c>
       <c r="N5">
-        <v>85.83574689470727</v>
+        <v>85.82376350509293</v>
       </c>
       <c r="O5" t="s">
         <v>27</v>

--- a/DECISION/국장_조선_분석.xlsx
+++ b/DECISION/국장_조선_분석.xlsx
@@ -546,7 +546,7 @@
         <v>25</v>
       </c>
       <c r="N2">
-        <v>85.82376350509293</v>
+        <v>85.77505782882612</v>
       </c>
       <c r="O2" t="s">
         <v>27</v>
@@ -590,7 +590,7 @@
         <v>26</v>
       </c>
       <c r="N3">
-        <v>85.82376350509293</v>
+        <v>85.77505782882612</v>
       </c>
       <c r="O3" t="s">
         <v>27</v>
@@ -634,7 +634,7 @@
         <v>26</v>
       </c>
       <c r="N4">
-        <v>85.82376350509293</v>
+        <v>85.77505782882612</v>
       </c>
       <c r="O4" t="s">
         <v>27</v>
@@ -678,7 +678,7 @@
         <v>26</v>
       </c>
       <c r="N5">
-        <v>85.82376350509293</v>
+        <v>85.77505782882612</v>
       </c>
       <c r="O5" t="s">
         <v>27</v>

--- a/DECISION/국장_조선_분석.xlsx
+++ b/DECISION/국장_조선_분석.xlsx
@@ -537,7 +537,7 @@
         <v>90</v>
       </c>
       <c r="K2">
-        <v>60.7</v>
+        <v>60.8</v>
       </c>
       <c r="L2" t="s">
         <v>24</v>
@@ -546,7 +546,7 @@
         <v>25</v>
       </c>
       <c r="N2">
-        <v>85.77505782882612</v>
+        <v>85.8724807945396</v>
       </c>
       <c r="O2" t="s">
         <v>27</v>
@@ -581,7 +581,7 @@
         <v>83</v>
       </c>
       <c r="K3">
-        <v>54.9</v>
+        <v>55</v>
       </c>
       <c r="L3" t="s">
         <v>24</v>
@@ -590,7 +590,7 @@
         <v>26</v>
       </c>
       <c r="N3">
-        <v>85.77505782882612</v>
+        <v>85.8724807945396</v>
       </c>
       <c r="O3" t="s">
         <v>27</v>
@@ -625,7 +625,7 @@
         <v>80</v>
       </c>
       <c r="K4">
-        <v>51.1</v>
+        <v>51.2</v>
       </c>
       <c r="L4" t="s">
         <v>24</v>
@@ -634,7 +634,7 @@
         <v>26</v>
       </c>
       <c r="N4">
-        <v>85.77505782882612</v>
+        <v>85.8724807945396</v>
       </c>
       <c r="O4" t="s">
         <v>27</v>
@@ -669,7 +669,7 @@
         <v>73</v>
       </c>
       <c r="K5">
-        <v>48.7</v>
+        <v>48.8</v>
       </c>
       <c r="L5" t="s">
         <v>24</v>
@@ -678,7 +678,7 @@
         <v>26</v>
       </c>
       <c r="N5">
-        <v>85.77505782882612</v>
+        <v>85.8724807945396</v>
       </c>
       <c r="O5" t="s">
         <v>27</v>

--- a/DECISION/국장_조선_분석.xlsx
+++ b/DECISION/국장_조선_분석.xlsx
@@ -546,7 +546,7 @@
         <v>25</v>
       </c>
       <c r="N2">
-        <v>85.8724807945396</v>
+        <v>85.92117485762657</v>
       </c>
       <c r="O2" t="s">
         <v>27</v>
@@ -590,7 +590,7 @@
         <v>26</v>
       </c>
       <c r="N3">
-        <v>85.8724807945396</v>
+        <v>85.92117485762657</v>
       </c>
       <c r="O3" t="s">
         <v>27</v>
@@ -634,7 +634,7 @@
         <v>26</v>
       </c>
       <c r="N4">
-        <v>85.8724807945396</v>
+        <v>85.92117485762657</v>
       </c>
       <c r="O4" t="s">
         <v>27</v>
@@ -678,7 +678,7 @@
         <v>26</v>
       </c>
       <c r="N5">
-        <v>85.8724807945396</v>
+        <v>85.92117485762657</v>
       </c>
       <c r="O5" t="s">
         <v>27</v>

--- a/DECISION/국장_조선_분석.xlsx
+++ b/DECISION/국장_조선_분석.xlsx
@@ -70,22 +70,22 @@
     <t>Hanwha Ocean</t>
   </si>
   <si>
+    <t>HD HYUNDAI MIPO</t>
+  </si>
+  <si>
     <t>HDKSOE</t>
   </si>
   <si>
-    <t>HD HYUNDAI MIPO</t>
-  </si>
-  <si>
     <t>010140.KS</t>
   </si>
   <si>
     <t>042660.KS</t>
   </si>
   <si>
+    <t>010620.KS</t>
+  </si>
+  <si>
     <t>009540.KS</t>
-  </si>
-  <si>
-    <t>010620.KS</t>
   </si>
   <si>
     <t>Pattern</t>
@@ -546,7 +546,7 @@
         <v>25</v>
       </c>
       <c r="N2">
-        <v>85.92117485762657</v>
+        <v>85.8724807945396</v>
       </c>
       <c r="O2" t="s">
         <v>27</v>
@@ -590,7 +590,7 @@
         <v>26</v>
       </c>
       <c r="N3">
-        <v>85.92117485762657</v>
+        <v>85.8724807945396</v>
       </c>
       <c r="O3" t="s">
         <v>27</v>
@@ -607,25 +607,25 @@
         <v>22</v>
       </c>
       <c r="D4">
-        <v>410000</v>
+        <v>223000</v>
       </c>
       <c r="F4">
-        <v>-2.38</v>
+        <v>0</v>
       </c>
       <c r="G4">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="H4">
-        <v>70</v>
+        <v>46</v>
       </c>
       <c r="I4">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="J4">
-        <v>80</v>
+        <v>63</v>
       </c>
       <c r="K4">
-        <v>51.2</v>
+        <v>51.8</v>
       </c>
       <c r="L4" t="s">
         <v>24</v>
@@ -634,7 +634,7 @@
         <v>26</v>
       </c>
       <c r="N4">
-        <v>85.92117485762657</v>
+        <v>85.8724807945396</v>
       </c>
       <c r="O4" t="s">
         <v>27</v>
@@ -651,25 +651,25 @@
         <v>23</v>
       </c>
       <c r="D5">
-        <v>223000</v>
+        <v>410000</v>
       </c>
       <c r="F5">
-        <v>-4.09</v>
+        <v>-2.38</v>
       </c>
       <c r="G5">
         <v>10</v>
       </c>
       <c r="H5">
-        <v>46</v>
+        <v>70</v>
       </c>
       <c r="I5">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="J5">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="K5">
-        <v>48.8</v>
+        <v>51.2</v>
       </c>
       <c r="L5" t="s">
         <v>24</v>
@@ -678,7 +678,7 @@
         <v>26</v>
       </c>
       <c r="N5">
-        <v>85.92117485762657</v>
+        <v>85.8724807945396</v>
       </c>
       <c r="O5" t="s">
         <v>27</v>

--- a/DECISION/국장_조선_분석.xlsx
+++ b/DECISION/국장_조선_분석.xlsx
@@ -521,6 +521,9 @@
       <c r="D2">
         <v>24600</v>
       </c>
+      <c r="E2">
+        <v>30.7</v>
+      </c>
       <c r="F2">
         <v>-2.96</v>
       </c>
@@ -546,7 +549,7 @@
         <v>25</v>
       </c>
       <c r="N2">
-        <v>85.8724807945396</v>
+        <v>85.87127175646313</v>
       </c>
       <c r="O2" t="s">
         <v>27</v>
@@ -565,6 +568,9 @@
       <c r="D3">
         <v>107800</v>
       </c>
+      <c r="E3">
+        <v>22.2</v>
+      </c>
       <c r="F3">
         <v>-10.02</v>
       </c>
@@ -590,7 +596,7 @@
         <v>26</v>
       </c>
       <c r="N3">
-        <v>85.8724807945396</v>
+        <v>85.87127175646313</v>
       </c>
       <c r="O3" t="s">
         <v>27</v>
@@ -609,11 +615,14 @@
       <c r="D4">
         <v>223000</v>
       </c>
+      <c r="E4">
+        <v>57.4</v>
+      </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="H4">
         <v>46</v>
@@ -625,7 +634,7 @@
         <v>63</v>
       </c>
       <c r="K4">
-        <v>51.8</v>
+        <v>54.8</v>
       </c>
       <c r="L4" t="s">
         <v>24</v>
@@ -634,7 +643,7 @@
         <v>26</v>
       </c>
       <c r="N4">
-        <v>85.8724807945396</v>
+        <v>85.87127175646313</v>
       </c>
       <c r="O4" t="s">
         <v>27</v>
@@ -653,11 +662,14 @@
       <c r="D5">
         <v>410000</v>
       </c>
+      <c r="E5">
+        <v>44.8</v>
+      </c>
       <c r="F5">
         <v>-2.38</v>
       </c>
       <c r="G5">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="H5">
         <v>70</v>
@@ -669,7 +681,7 @@
         <v>80</v>
       </c>
       <c r="K5">
-        <v>51.2</v>
+        <v>54.2</v>
       </c>
       <c r="L5" t="s">
         <v>24</v>
@@ -678,7 +690,7 @@
         <v>26</v>
       </c>
       <c r="N5">
-        <v>85.8724807945396</v>
+        <v>85.87127175646313</v>
       </c>
       <c r="O5" t="s">
         <v>27</v>

--- a/DECISION/국장_조선_분석.xlsx
+++ b/DECISION/국장_조선_분석.xlsx
@@ -61,7 +61,7 @@
     <t>MACRO_SIGNAL</t>
   </si>
   <si>
-    <t>2025-11-29</t>
+    <t>2025-12-01</t>
   </si>
   <si>
     <t>SamsungHvyInd</t>
@@ -549,7 +549,7 @@
         <v>25</v>
       </c>
       <c r="N2">
-        <v>85.87127175646313</v>
+        <v>85.87246918135976</v>
       </c>
       <c r="O2" t="s">
         <v>27</v>
@@ -596,7 +596,7 @@
         <v>26</v>
       </c>
       <c r="N3">
-        <v>85.87127175646313</v>
+        <v>85.87246918135976</v>
       </c>
       <c r="O3" t="s">
         <v>27</v>
@@ -643,7 +643,7 @@
         <v>26</v>
       </c>
       <c r="N4">
-        <v>85.87127175646313</v>
+        <v>85.87246918135976</v>
       </c>
       <c r="O4" t="s">
         <v>27</v>
@@ -690,7 +690,7 @@
         <v>26</v>
       </c>
       <c r="N5">
-        <v>85.87127175646313</v>
+        <v>85.87246918135976</v>
       </c>
       <c r="O5" t="s">
         <v>27</v>

--- a/DECISION/국장_조선_분석.xlsx
+++ b/DECISION/국장_조선_분석.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="27">
   <si>
     <t>날짜</t>
   </si>
@@ -64,6 +64,9 @@
     <t>2025-12-01</t>
   </si>
   <si>
+    <t>HDKSOE</t>
+  </si>
+  <si>
     <t>SamsungHvyInd</t>
   </si>
   <si>
@@ -73,7 +76,7 @@
     <t>HD HYUNDAI MIPO</t>
   </si>
   <si>
-    <t>HDKSOE</t>
+    <t>009540.KS</t>
   </si>
   <si>
     <t>010140.KS</t>
@@ -85,13 +88,7 @@
     <t>010620.KS</t>
   </si>
   <si>
-    <t>009540.KS</t>
-  </si>
-  <si>
     <t>Pattern</t>
-  </si>
-  <si>
-    <t>📈 매수 관찰 구간입니다.</t>
   </si>
   <si>
     <t>⛔ 관망하십시오.</t>
@@ -519,28 +516,28 @@
         <v>20</v>
       </c>
       <c r="D2">
-        <v>24600</v>
+        <v>399500</v>
       </c>
       <c r="E2">
-        <v>30.7</v>
+        <v>43.6</v>
       </c>
       <c r="F2">
-        <v>-2.96</v>
+        <v>-7.95</v>
       </c>
       <c r="G2">
         <v>10</v>
       </c>
       <c r="H2">
-        <v>70</v>
+        <v>56</v>
       </c>
       <c r="I2">
+        <v>73</v>
+      </c>
+      <c r="J2">
         <v>80</v>
       </c>
-      <c r="J2">
-        <v>90</v>
-      </c>
       <c r="K2">
-        <v>60.8</v>
+        <v>58</v>
       </c>
       <c r="L2" t="s">
         <v>24</v>
@@ -549,10 +546,10 @@
         <v>25</v>
       </c>
       <c r="N2">
-        <v>85.87246918135976</v>
+        <v>85.92500513438651</v>
       </c>
       <c r="O2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -566,40 +563,40 @@
         <v>21</v>
       </c>
       <c r="D3">
-        <v>107800</v>
+        <v>24200</v>
       </c>
       <c r="E3">
-        <v>22.2</v>
+        <v>32</v>
       </c>
       <c r="F3">
-        <v>-10.02</v>
+        <v>-3.39</v>
       </c>
       <c r="G3">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="H3">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="I3">
         <v>73</v>
       </c>
       <c r="J3">
-        <v>83</v>
+        <v>93</v>
       </c>
       <c r="K3">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="L3" t="s">
         <v>24</v>
       </c>
       <c r="M3" t="s">
+        <v>25</v>
+      </c>
+      <c r="N3">
+        <v>85.92500513438651</v>
+      </c>
+      <c r="O3" t="s">
         <v>26</v>
-      </c>
-      <c r="N3">
-        <v>85.87246918135976</v>
-      </c>
-      <c r="O3" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -613,40 +610,40 @@
         <v>22</v>
       </c>
       <c r="D4">
-        <v>223000</v>
+        <v>105300</v>
       </c>
       <c r="E4">
-        <v>57.4</v>
+        <v>22.5</v>
       </c>
       <c r="F4">
+        <v>-11.36</v>
+      </c>
+      <c r="G4">
         <v>0</v>
       </c>
-      <c r="G4">
-        <v>30</v>
-      </c>
       <c r="H4">
-        <v>46</v>
+        <v>66</v>
       </c>
       <c r="I4">
-        <v>50</v>
+        <v>73</v>
       </c>
       <c r="J4">
-        <v>63</v>
+        <v>73</v>
       </c>
       <c r="K4">
-        <v>54.8</v>
+        <v>55</v>
       </c>
       <c r="L4" t="s">
         <v>24</v>
       </c>
       <c r="M4" t="s">
+        <v>25</v>
+      </c>
+      <c r="N4">
+        <v>85.92500513438651</v>
+      </c>
+      <c r="O4" t="s">
         <v>26</v>
-      </c>
-      <c r="N4">
-        <v>85.87246918135976</v>
-      </c>
-      <c r="O4" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -660,40 +657,40 @@
         <v>23</v>
       </c>
       <c r="D5">
-        <v>410000</v>
+        <v>223000</v>
       </c>
       <c r="E5">
-        <v>44.8</v>
+        <v>57.4</v>
       </c>
       <c r="F5">
-        <v>-2.38</v>
+        <v>0</v>
       </c>
       <c r="G5">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="H5">
-        <v>70</v>
+        <v>46</v>
       </c>
       <c r="I5">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="J5">
-        <v>80</v>
+        <v>63</v>
       </c>
       <c r="K5">
-        <v>54.2</v>
+        <v>54.8</v>
       </c>
       <c r="L5" t="s">
         <v>24</v>
       </c>
       <c r="M5" t="s">
+        <v>25</v>
+      </c>
+      <c r="N5">
+        <v>85.92500513438651</v>
+      </c>
+      <c r="O5" t="s">
         <v>26</v>
-      </c>
-      <c r="N5">
-        <v>85.87246918135976</v>
-      </c>
-      <c r="O5" t="s">
-        <v>27</v>
       </c>
     </row>
   </sheetData>

--- a/DECISION/국장_조선_분석.xlsx
+++ b/DECISION/국장_조선_분석.xlsx
@@ -61,40 +61,40 @@
     <t>MACRO_SIGNAL</t>
   </si>
   <si>
-    <t>2025-12-01</t>
+    <t>2025-12-03</t>
+  </si>
+  <si>
+    <t>HD HYUNDAI MIPO</t>
   </si>
   <si>
     <t>HDKSOE</t>
   </si>
   <si>
+    <t>Hanwha Ocean</t>
+  </si>
+  <si>
     <t>SamsungHvyInd</t>
   </si>
   <si>
-    <t>Hanwha Ocean</t>
-  </si>
-  <si>
-    <t>HD HYUNDAI MIPO</t>
+    <t>010620.KS</t>
   </si>
   <si>
     <t>009540.KS</t>
   </si>
   <si>
+    <t>042660.KS</t>
+  </si>
+  <si>
     <t>010140.KS</t>
   </si>
   <si>
-    <t>042660.KS</t>
-  </si>
-  <si>
-    <t>010620.KS</t>
-  </si>
-  <si>
     <t>Pattern</t>
   </si>
   <si>
     <t>⛔ 관망하십시오.</t>
   </si>
   <si>
-    <t>🟢 완화적 (상승 우위)</t>
+    <t>🟢 상승 우위 (다소 완화)</t>
   </si>
 </sst>
 </file>
@@ -516,28 +516,28 @@
         <v>20</v>
       </c>
       <c r="D2">
-        <v>399500</v>
+        <v>223000</v>
       </c>
       <c r="E2">
-        <v>43.6</v>
+        <v>60</v>
       </c>
       <c r="F2">
-        <v>-7.95</v>
+        <v>0.68</v>
       </c>
       <c r="G2">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="H2">
+        <v>53</v>
+      </c>
+      <c r="I2">
         <v>56</v>
       </c>
-      <c r="I2">
-        <v>73</v>
-      </c>
       <c r="J2">
-        <v>80</v>
+        <v>66</v>
       </c>
       <c r="K2">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="L2" t="s">
         <v>24</v>
@@ -546,7 +546,7 @@
         <v>25</v>
       </c>
       <c r="N2">
-        <v>85.92500513438651</v>
+        <v>65.32892478746797</v>
       </c>
       <c r="O2" t="s">
         <v>26</v>
@@ -563,28 +563,28 @@
         <v>21</v>
       </c>
       <c r="D3">
-        <v>24200</v>
+        <v>413000</v>
       </c>
       <c r="E3">
-        <v>32</v>
+        <v>45.5</v>
       </c>
       <c r="F3">
-        <v>-3.39</v>
+        <v>-1.67</v>
       </c>
       <c r="G3">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="H3">
+        <v>63</v>
+      </c>
+      <c r="I3">
         <v>70</v>
       </c>
-      <c r="I3">
-        <v>73</v>
-      </c>
       <c r="J3">
-        <v>93</v>
+        <v>76</v>
       </c>
       <c r="K3">
-        <v>58</v>
+        <v>53.6</v>
       </c>
       <c r="L3" t="s">
         <v>24</v>
@@ -593,7 +593,7 @@
         <v>25</v>
       </c>
       <c r="N3">
-        <v>85.92500513438651</v>
+        <v>65.32892478746797</v>
       </c>
       <c r="O3" t="s">
         <v>26</v>
@@ -610,28 +610,28 @@
         <v>22</v>
       </c>
       <c r="D4">
-        <v>105300</v>
+        <v>106100</v>
       </c>
       <c r="E4">
-        <v>22.5</v>
+        <v>24.5</v>
       </c>
       <c r="F4">
-        <v>-11.36</v>
+        <v>-6.11</v>
       </c>
       <c r="G4">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="H4">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="I4">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="J4">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="K4">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="L4" t="s">
         <v>24</v>
@@ -640,7 +640,7 @@
         <v>25</v>
       </c>
       <c r="N4">
-        <v>85.92500513438651</v>
+        <v>65.32892478746797</v>
       </c>
       <c r="O4" t="s">
         <v>26</v>
@@ -657,28 +657,28 @@
         <v>23</v>
       </c>
       <c r="D5">
-        <v>223000</v>
+        <v>24500</v>
       </c>
       <c r="E5">
-        <v>57.4</v>
+        <v>36</v>
       </c>
       <c r="F5">
-        <v>0</v>
+        <v>-1.21</v>
       </c>
       <c r="G5">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="H5">
-        <v>46</v>
+        <v>66</v>
       </c>
       <c r="I5">
-        <v>50</v>
+        <v>76</v>
       </c>
       <c r="J5">
-        <v>63</v>
+        <v>90</v>
       </c>
       <c r="K5">
-        <v>54.8</v>
+        <v>53</v>
       </c>
       <c r="L5" t="s">
         <v>24</v>
@@ -687,7 +687,7 @@
         <v>25</v>
       </c>
       <c r="N5">
-        <v>85.92500513438651</v>
+        <v>65.32892478746797</v>
       </c>
       <c r="O5" t="s">
         <v>26</v>

--- a/DECISION/국장_조선_분석.xlsx
+++ b/DECISION/국장_조선_분석.xlsx
@@ -519,10 +519,10 @@
         <v>223000</v>
       </c>
       <c r="E2">
-        <v>60</v>
+        <v>59.1</v>
       </c>
       <c r="F2">
-        <v>0.68</v>
+        <v>1.59</v>
       </c>
       <c r="G2">
         <v>50</v>
@@ -531,13 +531,13 @@
         <v>53</v>
       </c>
       <c r="I2">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="J2">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="K2">
-        <v>57</v>
+        <v>58.8</v>
       </c>
       <c r="L2" t="s">
         <v>24</v>
@@ -546,7 +546,7 @@
         <v>25</v>
       </c>
       <c r="N2">
-        <v>65.32892478746797</v>
+        <v>66.04328690552585</v>
       </c>
       <c r="O2" t="s">
         <v>26</v>
@@ -584,7 +584,7 @@
         <v>76</v>
       </c>
       <c r="K3">
-        <v>53.6</v>
+        <v>53.8</v>
       </c>
       <c r="L3" t="s">
         <v>24</v>
@@ -593,7 +593,7 @@
         <v>25</v>
       </c>
       <c r="N3">
-        <v>65.32892478746797</v>
+        <v>66.04328690552585</v>
       </c>
       <c r="O3" t="s">
         <v>26</v>
@@ -631,7 +631,7 @@
         <v>83</v>
       </c>
       <c r="K4">
-        <v>53</v>
+        <v>53.2</v>
       </c>
       <c r="L4" t="s">
         <v>24</v>
@@ -640,7 +640,7 @@
         <v>25</v>
       </c>
       <c r="N4">
-        <v>65.32892478746797</v>
+        <v>66.04328690552585</v>
       </c>
       <c r="O4" t="s">
         <v>26</v>
@@ -678,7 +678,7 @@
         <v>90</v>
       </c>
       <c r="K5">
-        <v>53</v>
+        <v>53.2</v>
       </c>
       <c r="L5" t="s">
         <v>24</v>
@@ -687,7 +687,7 @@
         <v>25</v>
       </c>
       <c r="N5">
-        <v>65.32892478746797</v>
+        <v>66.04328690552585</v>
       </c>
       <c r="O5" t="s">
         <v>26</v>

--- a/DECISION/국장_조선_분석.xlsx
+++ b/DECISION/국장_조선_분석.xlsx
@@ -70,22 +70,22 @@
     <t>HDKSOE</t>
   </si>
   <si>
+    <t>SamsungHvyInd</t>
+  </si>
+  <si>
     <t>Hanwha Ocean</t>
   </si>
   <si>
-    <t>SamsungHvyInd</t>
-  </si>
-  <si>
     <t>010620.KS</t>
   </si>
   <si>
     <t>009540.KS</t>
   </si>
   <si>
+    <t>010140.KS</t>
+  </si>
+  <si>
     <t>042660.KS</t>
-  </si>
-  <si>
-    <t>010140.KS</t>
   </si>
   <si>
     <t>Pattern</t>
@@ -546,7 +546,7 @@
         <v>25</v>
       </c>
       <c r="N2">
-        <v>66.04328690552585</v>
+        <v>66.09241856096124</v>
       </c>
       <c r="O2" t="s">
         <v>26</v>
@@ -563,28 +563,28 @@
         <v>21</v>
       </c>
       <c r="D3">
-        <v>413000</v>
+        <v>419500</v>
       </c>
       <c r="E3">
-        <v>45.5</v>
+        <v>42.9</v>
       </c>
       <c r="F3">
-        <v>-1.67</v>
+        <v>-1.99</v>
       </c>
       <c r="G3">
         <v>20</v>
       </c>
       <c r="H3">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="I3">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="J3">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="K3">
-        <v>53.8</v>
+        <v>52.2</v>
       </c>
       <c r="L3" t="s">
         <v>24</v>
@@ -593,7 +593,7 @@
         <v>25</v>
       </c>
       <c r="N3">
-        <v>66.04328690552585</v>
+        <v>66.09241856096124</v>
       </c>
       <c r="O3" t="s">
         <v>26</v>
@@ -610,28 +610,28 @@
         <v>22</v>
       </c>
       <c r="D4">
-        <v>106100</v>
+        <v>24575</v>
       </c>
       <c r="E4">
-        <v>24.5</v>
+        <v>34.2</v>
       </c>
       <c r="F4">
-        <v>-6.11</v>
+        <v>-3.06</v>
       </c>
       <c r="G4">
         <v>10</v>
       </c>
       <c r="H4">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="I4">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="J4">
-        <v>83</v>
+        <v>96</v>
       </c>
       <c r="K4">
-        <v>53.2</v>
+        <v>52</v>
       </c>
       <c r="L4" t="s">
         <v>24</v>
@@ -640,7 +640,7 @@
         <v>25</v>
       </c>
       <c r="N4">
-        <v>66.04328690552585</v>
+        <v>66.09241856096124</v>
       </c>
       <c r="O4" t="s">
         <v>26</v>
@@ -657,28 +657,28 @@
         <v>23</v>
       </c>
       <c r="D5">
-        <v>24500</v>
+        <v>107500</v>
       </c>
       <c r="E5">
-        <v>36</v>
+        <v>19.3</v>
       </c>
       <c r="F5">
-        <v>-1.21</v>
+        <v>-5.62</v>
       </c>
       <c r="G5">
         <v>10</v>
       </c>
       <c r="H5">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="I5">
+        <v>70</v>
+      </c>
+      <c r="J5">
         <v>76</v>
       </c>
-      <c r="J5">
-        <v>90</v>
-      </c>
       <c r="K5">
-        <v>53.2</v>
+        <v>50.8</v>
       </c>
       <c r="L5" t="s">
         <v>24</v>
@@ -687,7 +687,7 @@
         <v>25</v>
       </c>
       <c r="N5">
-        <v>66.04328690552585</v>
+        <v>66.09241856096124</v>
       </c>
       <c r="O5" t="s">
         <v>26</v>

--- a/DECISION/국장_조선_분석.xlsx
+++ b/DECISION/국장_조선_분석.xlsx
@@ -61,7 +61,7 @@
     <t>MACRO_SIGNAL</t>
   </si>
   <si>
-    <t>2025-12-03</t>
+    <t>2025-12-05</t>
   </si>
   <si>
     <t>HD HYUNDAI MIPO</t>
@@ -94,7 +94,7 @@
     <t>⛔ 관망하십시오.</t>
   </si>
   <si>
-    <t>🟢 상승 우위 (다소 완화)</t>
+    <t>⚪ 중립 구간</t>
   </si>
 </sst>
 </file>
@@ -519,25 +519,25 @@
         <v>223000</v>
       </c>
       <c r="E2">
-        <v>59.1</v>
+        <v>50</v>
       </c>
       <c r="F2">
-        <v>1.59</v>
+        <v>0</v>
       </c>
       <c r="G2">
+        <v>40</v>
+      </c>
+      <c r="H2">
         <v>50</v>
       </c>
-      <c r="H2">
-        <v>53</v>
-      </c>
       <c r="I2">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="J2">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="K2">
-        <v>58.8</v>
+        <v>55.7</v>
       </c>
       <c r="L2" t="s">
         <v>24</v>
@@ -546,7 +546,7 @@
         <v>25</v>
       </c>
       <c r="N2">
-        <v>66.09241856096124</v>
+        <v>52.43913937059539</v>
       </c>
       <c r="O2" t="s">
         <v>26</v>
@@ -563,28 +563,28 @@
         <v>21</v>
       </c>
       <c r="D3">
-        <v>419500</v>
+        <v>419000</v>
       </c>
       <c r="E3">
-        <v>42.9</v>
+        <v>45.3</v>
       </c>
       <c r="F3">
-        <v>-1.99</v>
+        <v>-1.87</v>
       </c>
       <c r="G3">
         <v>20</v>
       </c>
       <c r="H3">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="I3">
         <v>66</v>
       </c>
       <c r="J3">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="K3">
-        <v>52.2</v>
+        <v>48.1</v>
       </c>
       <c r="L3" t="s">
         <v>24</v>
@@ -593,7 +593,7 @@
         <v>25</v>
       </c>
       <c r="N3">
-        <v>66.09241856096124</v>
+        <v>52.43913937059539</v>
       </c>
       <c r="O3" t="s">
         <v>26</v>
@@ -610,28 +610,28 @@
         <v>22</v>
       </c>
       <c r="D4">
-        <v>24575</v>
+        <v>24650</v>
       </c>
       <c r="E4">
-        <v>34.2</v>
+        <v>36.4</v>
       </c>
       <c r="F4">
-        <v>-3.06</v>
+        <v>-2.57</v>
       </c>
       <c r="G4">
         <v>10</v>
       </c>
       <c r="H4">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="I4">
         <v>73</v>
       </c>
       <c r="J4">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="K4">
-        <v>52</v>
+        <v>47.9</v>
       </c>
       <c r="L4" t="s">
         <v>24</v>
@@ -640,7 +640,7 @@
         <v>25</v>
       </c>
       <c r="N4">
-        <v>66.09241856096124</v>
+        <v>52.43913937059539</v>
       </c>
       <c r="O4" t="s">
         <v>26</v>
@@ -657,13 +657,13 @@
         <v>23</v>
       </c>
       <c r="D5">
-        <v>107500</v>
+        <v>106500</v>
       </c>
       <c r="E5">
-        <v>19.3</v>
+        <v>20.6</v>
       </c>
       <c r="F5">
-        <v>-5.62</v>
+        <v>-3.62</v>
       </c>
       <c r="G5">
         <v>10</v>
@@ -675,10 +675,10 @@
         <v>70</v>
       </c>
       <c r="J5">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="K5">
-        <v>50.8</v>
+        <v>46.7</v>
       </c>
       <c r="L5" t="s">
         <v>24</v>
@@ -687,7 +687,7 @@
         <v>25</v>
       </c>
       <c r="N5">
-        <v>66.09241856096124</v>
+        <v>52.43913937059539</v>
       </c>
       <c r="O5" t="s">
         <v>26</v>

--- a/DECISION/국장_조선_분석.xlsx
+++ b/DECISION/국장_조선_분석.xlsx
@@ -546,7 +546,7 @@
         <v>25</v>
       </c>
       <c r="N2">
-        <v>52.43913937059539</v>
+        <v>52.47848103381103</v>
       </c>
       <c r="O2" t="s">
         <v>26</v>
@@ -593,7 +593,7 @@
         <v>25</v>
       </c>
       <c r="N3">
-        <v>52.43913937059539</v>
+        <v>52.47848103381103</v>
       </c>
       <c r="O3" t="s">
         <v>26</v>
@@ -640,7 +640,7 @@
         <v>25</v>
       </c>
       <c r="N4">
-        <v>52.43913937059539</v>
+        <v>52.47848103381103</v>
       </c>
       <c r="O4" t="s">
         <v>26</v>
@@ -687,7 +687,7 @@
         <v>25</v>
       </c>
       <c r="N5">
-        <v>52.43913937059539</v>
+        <v>52.47848103381103</v>
       </c>
       <c r="O5" t="s">
         <v>26</v>

--- a/DECISION/국장_조선_분석.xlsx
+++ b/DECISION/국장_조선_분석.xlsx
@@ -537,7 +537,7 @@
         <v>70</v>
       </c>
       <c r="K2">
-        <v>55.7</v>
+        <v>56.1</v>
       </c>
       <c r="L2" t="s">
         <v>24</v>
@@ -546,7 +546,7 @@
         <v>25</v>
       </c>
       <c r="N2">
-        <v>52.47848103381103</v>
+        <v>53.62998959737769</v>
       </c>
       <c r="O2" t="s">
         <v>26</v>
@@ -584,7 +584,7 @@
         <v>76</v>
       </c>
       <c r="K3">
-        <v>48.1</v>
+        <v>48.5</v>
       </c>
       <c r="L3" t="s">
         <v>24</v>
@@ -593,7 +593,7 @@
         <v>25</v>
       </c>
       <c r="N3">
-        <v>52.47848103381103</v>
+        <v>53.62998959737769</v>
       </c>
       <c r="O3" t="s">
         <v>26</v>
@@ -631,7 +631,7 @@
         <v>90</v>
       </c>
       <c r="K4">
-        <v>47.9</v>
+        <v>48.3</v>
       </c>
       <c r="L4" t="s">
         <v>24</v>
@@ -640,7 +640,7 @@
         <v>25</v>
       </c>
       <c r="N4">
-        <v>52.47848103381103</v>
+        <v>53.62998959737769</v>
       </c>
       <c r="O4" t="s">
         <v>26</v>
@@ -678,7 +678,7 @@
         <v>73</v>
       </c>
       <c r="K5">
-        <v>46.7</v>
+        <v>47.1</v>
       </c>
       <c r="L5" t="s">
         <v>24</v>
@@ -687,7 +687,7 @@
         <v>25</v>
       </c>
       <c r="N5">
-        <v>52.47848103381103</v>
+        <v>53.62998959737769</v>
       </c>
       <c r="O5" t="s">
         <v>26</v>

--- a/DECISION/국장_조선_분석.xlsx
+++ b/DECISION/국장_조선_분석.xlsx
@@ -546,7 +546,7 @@
         <v>25</v>
       </c>
       <c r="N2">
-        <v>53.62998959737769</v>
+        <v>53.71147335634279</v>
       </c>
       <c r="O2" t="s">
         <v>26</v>
@@ -593,7 +593,7 @@
         <v>25</v>
       </c>
       <c r="N3">
-        <v>53.62998959737769</v>
+        <v>53.71147335634279</v>
       </c>
       <c r="O3" t="s">
         <v>26</v>
@@ -640,7 +640,7 @@
         <v>25</v>
       </c>
       <c r="N4">
-        <v>53.62998959737769</v>
+        <v>53.71147335634279</v>
       </c>
       <c r="O4" t="s">
         <v>26</v>
@@ -687,7 +687,7 @@
         <v>25</v>
       </c>
       <c r="N5">
-        <v>53.62998959737769</v>
+        <v>53.71147335634279</v>
       </c>
       <c r="O5" t="s">
         <v>26</v>

--- a/DECISION/국장_조선_분석.xlsx
+++ b/DECISION/국장_조선_분석.xlsx
@@ -537,7 +537,7 @@
         <v>70</v>
       </c>
       <c r="K2">
-        <v>56.1</v>
+        <v>56.2</v>
       </c>
       <c r="L2" t="s">
         <v>24</v>
@@ -546,7 +546,7 @@
         <v>25</v>
       </c>
       <c r="N2">
-        <v>53.71147335634279</v>
+        <v>54.02451352198364</v>
       </c>
       <c r="O2" t="s">
         <v>26</v>
@@ -584,7 +584,7 @@
         <v>76</v>
       </c>
       <c r="K3">
-        <v>48.5</v>
+        <v>48.6</v>
       </c>
       <c r="L3" t="s">
         <v>24</v>
@@ -593,7 +593,7 @@
         <v>25</v>
       </c>
       <c r="N3">
-        <v>53.71147335634279</v>
+        <v>54.02451352198364</v>
       </c>
       <c r="O3" t="s">
         <v>26</v>
@@ -631,7 +631,7 @@
         <v>90</v>
       </c>
       <c r="K4">
-        <v>48.3</v>
+        <v>48.4</v>
       </c>
       <c r="L4" t="s">
         <v>24</v>
@@ -640,7 +640,7 @@
         <v>25</v>
       </c>
       <c r="N4">
-        <v>53.71147335634279</v>
+        <v>54.02451352198364</v>
       </c>
       <c r="O4" t="s">
         <v>26</v>
@@ -678,7 +678,7 @@
         <v>73</v>
       </c>
       <c r="K5">
-        <v>47.1</v>
+        <v>47.2</v>
       </c>
       <c r="L5" t="s">
         <v>24</v>
@@ -687,7 +687,7 @@
         <v>25</v>
       </c>
       <c r="N5">
-        <v>53.71147335634279</v>
+        <v>54.02451352198364</v>
       </c>
       <c r="O5" t="s">
         <v>26</v>

--- a/DECISION/국장_조선_분석.xlsx
+++ b/DECISION/국장_조선_분석.xlsx
@@ -64,28 +64,28 @@
     <t>2025-12-05</t>
   </si>
   <si>
+    <t>HDKSOE</t>
+  </si>
+  <si>
     <t>HD HYUNDAI MIPO</t>
   </si>
   <si>
-    <t>HDKSOE</t>
+    <t>Hanwha Ocean</t>
   </si>
   <si>
     <t>SamsungHvyInd</t>
   </si>
   <si>
-    <t>Hanwha Ocean</t>
+    <t>009540.KS</t>
   </si>
   <si>
     <t>010620.KS</t>
   </si>
   <si>
-    <t>009540.KS</t>
+    <t>042660.KS</t>
   </si>
   <si>
     <t>010140.KS</t>
-  </si>
-  <si>
-    <t>042660.KS</t>
   </si>
   <si>
     <t>Pattern</t>
@@ -516,28 +516,28 @@
         <v>20</v>
       </c>
       <c r="D2">
-        <v>223000</v>
+        <v>426500</v>
       </c>
       <c r="E2">
-        <v>50</v>
+        <v>46.4</v>
       </c>
       <c r="F2">
-        <v>0</v>
+        <v>4.02</v>
       </c>
       <c r="G2">
         <v>40</v>
       </c>
       <c r="H2">
-        <v>50</v>
+        <v>73</v>
       </c>
       <c r="I2">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="J2">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="K2">
-        <v>56.2</v>
+        <v>57.7</v>
       </c>
       <c r="L2" t="s">
         <v>24</v>
@@ -546,7 +546,7 @@
         <v>25</v>
       </c>
       <c r="N2">
-        <v>54.02451352198364</v>
+        <v>54.85170003294819</v>
       </c>
       <c r="O2" t="s">
         <v>26</v>
@@ -563,28 +563,28 @@
         <v>21</v>
       </c>
       <c r="D3">
-        <v>419000</v>
+        <v>223000</v>
       </c>
       <c r="E3">
-        <v>45.3</v>
+        <v>41.6</v>
       </c>
       <c r="F3">
-        <v>-1.87</v>
+        <v>0</v>
       </c>
       <c r="G3">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="H3">
+        <v>50</v>
+      </c>
+      <c r="I3">
         <v>70</v>
       </c>
-      <c r="I3">
-        <v>66</v>
-      </c>
       <c r="J3">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="K3">
-        <v>48.6</v>
+        <v>56.5</v>
       </c>
       <c r="L3" t="s">
         <v>24</v>
@@ -593,7 +593,7 @@
         <v>25</v>
       </c>
       <c r="N3">
-        <v>54.02451352198364</v>
+        <v>54.85170003294819</v>
       </c>
       <c r="O3" t="s">
         <v>26</v>
@@ -610,28 +610,28 @@
         <v>22</v>
       </c>
       <c r="D4">
-        <v>24650</v>
+        <v>107100</v>
       </c>
       <c r="E4">
-        <v>36.4</v>
+        <v>18</v>
       </c>
       <c r="F4">
-        <v>-2.57</v>
+        <v>-0.65</v>
       </c>
       <c r="G4">
         <v>10</v>
       </c>
       <c r="H4">
-        <v>56</v>
+        <v>73</v>
       </c>
       <c r="I4">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="J4">
-        <v>90</v>
+        <v>76</v>
       </c>
       <c r="K4">
-        <v>48.4</v>
+        <v>51.5</v>
       </c>
       <c r="L4" t="s">
         <v>24</v>
@@ -640,7 +640,7 @@
         <v>25</v>
       </c>
       <c r="N4">
-        <v>54.02451352198364</v>
+        <v>54.85170003294819</v>
       </c>
       <c r="O4" t="s">
         <v>26</v>
@@ -657,28 +657,28 @@
         <v>23</v>
       </c>
       <c r="D5">
-        <v>106500</v>
+        <v>24900</v>
       </c>
       <c r="E5">
-        <v>20.6</v>
+        <v>39.5</v>
       </c>
       <c r="F5">
-        <v>-3.62</v>
+        <v>1.22</v>
       </c>
       <c r="G5">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="H5">
         <v>63</v>
       </c>
       <c r="I5">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="J5">
-        <v>73</v>
+        <v>93</v>
       </c>
       <c r="K5">
-        <v>47.2</v>
+        <v>47.7</v>
       </c>
       <c r="L5" t="s">
         <v>24</v>
@@ -687,7 +687,7 @@
         <v>25</v>
       </c>
       <c r="N5">
-        <v>54.02451352198364</v>
+        <v>54.85170003294819</v>
       </c>
       <c r="O5" t="s">
         <v>26</v>

--- a/DECISION/국장_조선_분석.xlsx
+++ b/DECISION/국장_조선_분석.xlsx
@@ -516,13 +516,13 @@
         <v>20</v>
       </c>
       <c r="D2">
-        <v>426500</v>
+        <v>425500</v>
       </c>
       <c r="E2">
-        <v>46.4</v>
+        <v>46</v>
       </c>
       <c r="F2">
-        <v>4.02</v>
+        <v>3.78</v>
       </c>
       <c r="G2">
         <v>40</v>
@@ -546,7 +546,7 @@
         <v>25</v>
       </c>
       <c r="N2">
-        <v>54.85170003294819</v>
+        <v>54.86376272656823</v>
       </c>
       <c r="O2" t="s">
         <v>26</v>
@@ -593,7 +593,7 @@
         <v>25</v>
       </c>
       <c r="N3">
-        <v>54.85170003294819</v>
+        <v>54.86376272656823</v>
       </c>
       <c r="O3" t="s">
         <v>26</v>
@@ -610,13 +610,13 @@
         <v>22</v>
       </c>
       <c r="D4">
-        <v>107100</v>
+        <v>106800</v>
       </c>
       <c r="E4">
-        <v>18</v>
+        <v>17.3</v>
       </c>
       <c r="F4">
-        <v>-0.65</v>
+        <v>-0.93</v>
       </c>
       <c r="G4">
         <v>10</v>
@@ -625,13 +625,13 @@
         <v>73</v>
       </c>
       <c r="I4">
+        <v>83</v>
+      </c>
+      <c r="J4">
         <v>80</v>
       </c>
-      <c r="J4">
-        <v>76</v>
-      </c>
       <c r="K4">
-        <v>51.5</v>
+        <v>52.7</v>
       </c>
       <c r="L4" t="s">
         <v>24</v>
@@ -640,7 +640,7 @@
         <v>25</v>
       </c>
       <c r="N4">
-        <v>54.85170003294819</v>
+        <v>54.86376272656823</v>
       </c>
       <c r="O4" t="s">
         <v>26</v>
@@ -657,13 +657,13 @@
         <v>23</v>
       </c>
       <c r="D5">
-        <v>24900</v>
+        <v>24800</v>
       </c>
       <c r="E5">
-        <v>39.5</v>
+        <v>38.5</v>
       </c>
       <c r="F5">
-        <v>1.22</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="G5">
         <v>20</v>
@@ -672,13 +672,13 @@
         <v>63</v>
       </c>
       <c r="I5">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="J5">
         <v>93</v>
       </c>
       <c r="K5">
-        <v>47.7</v>
+        <v>46.5</v>
       </c>
       <c r="L5" t="s">
         <v>24</v>
@@ -687,7 +687,7 @@
         <v>25</v>
       </c>
       <c r="N5">
-        <v>54.85170003294819</v>
+        <v>54.86376272656823</v>
       </c>
       <c r="O5" t="s">
         <v>26</v>

--- a/DECISION/국장_조선_분석.xlsx
+++ b/DECISION/국장_조선_분석.xlsx
@@ -516,13 +516,13 @@
         <v>20</v>
       </c>
       <c r="D2">
-        <v>425500</v>
+        <v>426000</v>
       </c>
       <c r="E2">
-        <v>46</v>
+        <v>46.2</v>
       </c>
       <c r="F2">
-        <v>3.78</v>
+        <v>3.9</v>
       </c>
       <c r="G2">
         <v>40</v>
@@ -546,7 +546,7 @@
         <v>25</v>
       </c>
       <c r="N2">
-        <v>54.86376272656823</v>
+        <v>54.84087454262382</v>
       </c>
       <c r="O2" t="s">
         <v>26</v>
@@ -593,7 +593,7 @@
         <v>25</v>
       </c>
       <c r="N3">
-        <v>54.86376272656823</v>
+        <v>54.84087454262382</v>
       </c>
       <c r="O3" t="s">
         <v>26</v>
@@ -610,13 +610,13 @@
         <v>22</v>
       </c>
       <c r="D4">
-        <v>106800</v>
+        <v>106700</v>
       </c>
       <c r="E4">
-        <v>17.3</v>
+        <v>17.1</v>
       </c>
       <c r="F4">
-        <v>-0.93</v>
+        <v>-1.02</v>
       </c>
       <c r="G4">
         <v>10</v>
@@ -640,7 +640,7 @@
         <v>25</v>
       </c>
       <c r="N4">
-        <v>54.86376272656823</v>
+        <v>54.84087454262382</v>
       </c>
       <c r="O4" t="s">
         <v>26</v>
@@ -657,13 +657,13 @@
         <v>23</v>
       </c>
       <c r="D5">
-        <v>24800</v>
+        <v>24850</v>
       </c>
       <c r="E5">
-        <v>38.5</v>
+        <v>39</v>
       </c>
       <c r="F5">
-        <v>0.8100000000000001</v>
+        <v>1.02</v>
       </c>
       <c r="G5">
         <v>20</v>
@@ -672,13 +672,13 @@
         <v>63</v>
       </c>
       <c r="I5">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="J5">
         <v>93</v>
       </c>
       <c r="K5">
-        <v>46.5</v>
+        <v>47.7</v>
       </c>
       <c r="L5" t="s">
         <v>24</v>
@@ -687,7 +687,7 @@
         <v>25</v>
       </c>
       <c r="N5">
-        <v>54.86376272656823</v>
+        <v>54.84087454262382</v>
       </c>
       <c r="O5" t="s">
         <v>26</v>

--- a/DECISION/국장_조선_분석.xlsx
+++ b/DECISION/국장_조선_분석.xlsx
@@ -516,13 +516,13 @@
         <v>20</v>
       </c>
       <c r="D2">
-        <v>426000</v>
+        <v>425500</v>
       </c>
       <c r="E2">
-        <v>46.2</v>
+        <v>46</v>
       </c>
       <c r="F2">
-        <v>3.9</v>
+        <v>3.78</v>
       </c>
       <c r="G2">
         <v>40</v>
@@ -537,7 +537,7 @@
         <v>80</v>
       </c>
       <c r="K2">
-        <v>57.7</v>
+        <v>57.6</v>
       </c>
       <c r="L2" t="s">
         <v>24</v>
@@ -546,7 +546,7 @@
         <v>25</v>
       </c>
       <c r="N2">
-        <v>54.84087454262382</v>
+        <v>54.82400714602223</v>
       </c>
       <c r="O2" t="s">
         <v>26</v>
@@ -584,7 +584,7 @@
         <v>70</v>
       </c>
       <c r="K3">
-        <v>56.5</v>
+        <v>56.4</v>
       </c>
       <c r="L3" t="s">
         <v>24</v>
@@ -593,7 +593,7 @@
         <v>25</v>
       </c>
       <c r="N3">
-        <v>54.84087454262382</v>
+        <v>54.82400714602223</v>
       </c>
       <c r="O3" t="s">
         <v>26</v>
@@ -610,13 +610,13 @@
         <v>22</v>
       </c>
       <c r="D4">
-        <v>106700</v>
+        <v>107100</v>
       </c>
       <c r="E4">
-        <v>17.1</v>
+        <v>18</v>
       </c>
       <c r="F4">
-        <v>-1.02</v>
+        <v>-0.65</v>
       </c>
       <c r="G4">
         <v>10</v>
@@ -625,13 +625,13 @@
         <v>73</v>
       </c>
       <c r="I4">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="J4">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="K4">
-        <v>52.7</v>
+        <v>51.4</v>
       </c>
       <c r="L4" t="s">
         <v>24</v>
@@ -640,7 +640,7 @@
         <v>25</v>
       </c>
       <c r="N4">
-        <v>54.84087454262382</v>
+        <v>54.82400714602223</v>
       </c>
       <c r="O4" t="s">
         <v>26</v>
@@ -678,7 +678,7 @@
         <v>93</v>
       </c>
       <c r="K5">
-        <v>47.7</v>
+        <v>47.6</v>
       </c>
       <c r="L5" t="s">
         <v>24</v>
@@ -687,7 +687,7 @@
         <v>25</v>
       </c>
       <c r="N5">
-        <v>54.84087454262382</v>
+        <v>54.82400714602223</v>
       </c>
       <c r="O5" t="s">
         <v>26</v>

--- a/DECISION/국장_조선_분석.xlsx
+++ b/DECISION/국장_조선_분석.xlsx
@@ -516,13 +516,13 @@
         <v>20</v>
       </c>
       <c r="D2">
-        <v>425500</v>
+        <v>426500</v>
       </c>
       <c r="E2">
-        <v>46</v>
+        <v>46.4</v>
       </c>
       <c r="F2">
-        <v>3.78</v>
+        <v>4.02</v>
       </c>
       <c r="G2">
         <v>40</v>
@@ -537,7 +537,7 @@
         <v>80</v>
       </c>
       <c r="K2">
-        <v>57.6</v>
+        <v>57.7</v>
       </c>
       <c r="L2" t="s">
         <v>24</v>
@@ -546,7 +546,7 @@
         <v>25</v>
       </c>
       <c r="N2">
-        <v>54.82400714602223</v>
+        <v>54.83846622768671</v>
       </c>
       <c r="O2" t="s">
         <v>26</v>
@@ -584,7 +584,7 @@
         <v>70</v>
       </c>
       <c r="K3">
-        <v>56.4</v>
+        <v>56.5</v>
       </c>
       <c r="L3" t="s">
         <v>24</v>
@@ -593,7 +593,7 @@
         <v>25</v>
       </c>
       <c r="N3">
-        <v>54.82400714602223</v>
+        <v>54.83846622768671</v>
       </c>
       <c r="O3" t="s">
         <v>26</v>
@@ -631,7 +631,7 @@
         <v>76</v>
       </c>
       <c r="K4">
-        <v>51.4</v>
+        <v>51.5</v>
       </c>
       <c r="L4" t="s">
         <v>24</v>
@@ -640,7 +640,7 @@
         <v>25</v>
       </c>
       <c r="N4">
-        <v>54.82400714602223</v>
+        <v>54.83846622768671</v>
       </c>
       <c r="O4" t="s">
         <v>26</v>
@@ -678,7 +678,7 @@
         <v>93</v>
       </c>
       <c r="K5">
-        <v>47.6</v>
+        <v>47.7</v>
       </c>
       <c r="L5" t="s">
         <v>24</v>
@@ -687,7 +687,7 @@
         <v>25</v>
       </c>
       <c r="N5">
-        <v>54.82400714602223</v>
+        <v>54.83846622768671</v>
       </c>
       <c r="O5" t="s">
         <v>26</v>

--- a/DECISION/국장_조선_분석.xlsx
+++ b/DECISION/국장_조선_분석.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="28">
   <si>
     <t>날짜</t>
   </si>
@@ -89,6 +89,9 @@
   </si>
   <si>
     <t>Pattern</t>
+  </si>
+  <si>
+    <t>📈 매수 관찰 구간입니다.</t>
   </si>
   <si>
     <t>⛔ 관망하십시오.</t>
@@ -516,13 +519,13 @@
         <v>20</v>
       </c>
       <c r="D2">
-        <v>426500</v>
+        <v>432000</v>
       </c>
       <c r="E2">
-        <v>46.4</v>
+        <v>48.5</v>
       </c>
       <c r="F2">
-        <v>4.02</v>
+        <v>5.37</v>
       </c>
       <c r="G2">
         <v>40</v>
@@ -531,13 +534,13 @@
         <v>73</v>
       </c>
       <c r="I2">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="J2">
         <v>80</v>
       </c>
       <c r="K2">
-        <v>57.7</v>
+        <v>60.4</v>
       </c>
       <c r="L2" t="s">
         <v>24</v>
@@ -546,10 +549,10 @@
         <v>25</v>
       </c>
       <c r="N2">
-        <v>54.83846622768671</v>
+        <v>54.77309453746771</v>
       </c>
       <c r="O2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -584,19 +587,19 @@
         <v>70</v>
       </c>
       <c r="K3">
-        <v>56.5</v>
+        <v>56.4</v>
       </c>
       <c r="L3" t="s">
         <v>24</v>
       </c>
       <c r="M3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="N3">
-        <v>54.83846622768671</v>
+        <v>54.77309453746771</v>
       </c>
       <c r="O3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -610,40 +613,40 @@
         <v>22</v>
       </c>
       <c r="D4">
-        <v>107100</v>
+        <v>108500</v>
       </c>
       <c r="E4">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="F4">
-        <v>-0.65</v>
+        <v>0.65</v>
       </c>
       <c r="G4">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="H4">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="I4">
         <v>80</v>
       </c>
       <c r="J4">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="K4">
-        <v>51.5</v>
+        <v>54.4</v>
       </c>
       <c r="L4" t="s">
         <v>24</v>
       </c>
       <c r="M4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="N4">
-        <v>54.83846622768671</v>
+        <v>54.77309453746771</v>
       </c>
       <c r="O4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -657,40 +660,40 @@
         <v>23</v>
       </c>
       <c r="D5">
-        <v>24850</v>
+        <v>25450</v>
       </c>
       <c r="E5">
-        <v>39</v>
+        <v>44.4</v>
       </c>
       <c r="F5">
-        <v>1.02</v>
+        <v>3.46</v>
       </c>
       <c r="G5">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="H5">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="I5">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="J5">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="K5">
-        <v>47.7</v>
+        <v>53.4</v>
       </c>
       <c r="L5" t="s">
         <v>24</v>
       </c>
       <c r="M5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="N5">
-        <v>54.83846622768671</v>
+        <v>54.77309453746771</v>
       </c>
       <c r="O5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
   </sheetData>

--- a/DECISION/국장_조선_분석.xlsx
+++ b/DECISION/국장_조선_분석.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="27">
   <si>
     <t>날짜</t>
   </si>
@@ -89,9 +89,6 @@
   </si>
   <si>
     <t>Pattern</t>
-  </si>
-  <si>
-    <t>📈 매수 관찰 구간입니다.</t>
   </si>
   <si>
     <t>⛔ 관망하십시오.</t>
@@ -540,7 +537,7 @@
         <v>80</v>
       </c>
       <c r="K2">
-        <v>60.4</v>
+        <v>59.5</v>
       </c>
       <c r="L2" t="s">
         <v>24</v>
@@ -549,10 +546,10 @@
         <v>25</v>
       </c>
       <c r="N2">
-        <v>54.77309453746771</v>
+        <v>51.53902399942638</v>
       </c>
       <c r="O2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -587,19 +584,19 @@
         <v>70</v>
       </c>
       <c r="K3">
-        <v>56.4</v>
+        <v>55.5</v>
       </c>
       <c r="L3" t="s">
         <v>24</v>
       </c>
       <c r="M3" t="s">
+        <v>25</v>
+      </c>
+      <c r="N3">
+        <v>51.53902399942638</v>
+      </c>
+      <c r="O3" t="s">
         <v>26</v>
-      </c>
-      <c r="N3">
-        <v>54.77309453746771</v>
-      </c>
-      <c r="O3" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -634,19 +631,19 @@
         <v>80</v>
       </c>
       <c r="K4">
-        <v>54.4</v>
+        <v>53.5</v>
       </c>
       <c r="L4" t="s">
         <v>24</v>
       </c>
       <c r="M4" t="s">
+        <v>25</v>
+      </c>
+      <c r="N4">
+        <v>51.53902399942638</v>
+      </c>
+      <c r="O4" t="s">
         <v>26</v>
-      </c>
-      <c r="N4">
-        <v>54.77309453746771</v>
-      </c>
-      <c r="O4" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -681,19 +678,19 @@
         <v>90</v>
       </c>
       <c r="K5">
-        <v>53.4</v>
+        <v>52.5</v>
       </c>
       <c r="L5" t="s">
         <v>24</v>
       </c>
       <c r="M5" t="s">
+        <v>25</v>
+      </c>
+      <c r="N5">
+        <v>51.53902399942638</v>
+      </c>
+      <c r="O5" t="s">
         <v>26</v>
-      </c>
-      <c r="N5">
-        <v>54.77309453746771</v>
-      </c>
-      <c r="O5" t="s">
-        <v>27</v>
       </c>
     </row>
   </sheetData>

--- a/DECISION/국장_조선_분석.xlsx
+++ b/DECISION/국장_조선_분석.xlsx
@@ -537,7 +537,7 @@
         <v>80</v>
       </c>
       <c r="K2">
-        <v>59.5</v>
+        <v>59.3</v>
       </c>
       <c r="L2" t="s">
         <v>24</v>
@@ -546,7 +546,7 @@
         <v>25</v>
       </c>
       <c r="N2">
-        <v>51.53902399942638</v>
+        <v>51.15965480231979</v>
       </c>
       <c r="O2" t="s">
         <v>26</v>
@@ -584,7 +584,7 @@
         <v>70</v>
       </c>
       <c r="K3">
-        <v>55.5</v>
+        <v>55.3</v>
       </c>
       <c r="L3" t="s">
         <v>24</v>
@@ -593,7 +593,7 @@
         <v>25</v>
       </c>
       <c r="N3">
-        <v>51.53902399942638</v>
+        <v>51.15965480231979</v>
       </c>
       <c r="O3" t="s">
         <v>26</v>
@@ -631,7 +631,7 @@
         <v>80</v>
       </c>
       <c r="K4">
-        <v>53.5</v>
+        <v>53.3</v>
       </c>
       <c r="L4" t="s">
         <v>24</v>
@@ -640,7 +640,7 @@
         <v>25</v>
       </c>
       <c r="N4">
-        <v>51.53902399942638</v>
+        <v>51.15965480231979</v>
       </c>
       <c r="O4" t="s">
         <v>26</v>
@@ -678,7 +678,7 @@
         <v>90</v>
       </c>
       <c r="K5">
-        <v>52.5</v>
+        <v>52.3</v>
       </c>
       <c r="L5" t="s">
         <v>24</v>
@@ -687,7 +687,7 @@
         <v>25</v>
       </c>
       <c r="N5">
-        <v>51.53902399942638</v>
+        <v>51.15965480231979</v>
       </c>
       <c r="O5" t="s">
         <v>26</v>

--- a/DECISION/국장_조선_분석.xlsx
+++ b/DECISION/국장_조선_분석.xlsx
@@ -546,7 +546,7 @@
         <v>25</v>
       </c>
       <c r="N2">
-        <v>51.15965480231979</v>
+        <v>51.05762969290213</v>
       </c>
       <c r="O2" t="s">
         <v>26</v>
@@ -593,7 +593,7 @@
         <v>25</v>
       </c>
       <c r="N3">
-        <v>51.15965480231979</v>
+        <v>51.05762969290213</v>
       </c>
       <c r="O3" t="s">
         <v>26</v>
@@ -640,7 +640,7 @@
         <v>25</v>
       </c>
       <c r="N4">
-        <v>51.15965480231979</v>
+        <v>51.05762969290213</v>
       </c>
       <c r="O4" t="s">
         <v>26</v>
@@ -687,7 +687,7 @@
         <v>25</v>
       </c>
       <c r="N5">
-        <v>51.15965480231979</v>
+        <v>51.05762969290213</v>
       </c>
       <c r="O5" t="s">
         <v>26</v>

--- a/DECISION/국장_조선_분석.xlsx
+++ b/DECISION/국장_조선_분석.xlsx
@@ -61,7 +61,7 @@
     <t>MACRO_SIGNAL</t>
   </si>
   <si>
-    <t>2025-12-05</t>
+    <t>2025-12-06</t>
   </si>
   <si>
     <t>HDKSOE</t>
@@ -537,7 +537,7 @@
         <v>80</v>
       </c>
       <c r="K2">
-        <v>59.3</v>
+        <v>59.5</v>
       </c>
       <c r="L2" t="s">
         <v>24</v>
@@ -546,7 +546,7 @@
         <v>25</v>
       </c>
       <c r="N2">
-        <v>51.05762969290213</v>
+        <v>51.54219175917372</v>
       </c>
       <c r="O2" t="s">
         <v>26</v>
@@ -584,7 +584,7 @@
         <v>70</v>
       </c>
       <c r="K3">
-        <v>55.3</v>
+        <v>55.5</v>
       </c>
       <c r="L3" t="s">
         <v>24</v>
@@ -593,7 +593,7 @@
         <v>25</v>
       </c>
       <c r="N3">
-        <v>51.05762969290213</v>
+        <v>51.54219175917372</v>
       </c>
       <c r="O3" t="s">
         <v>26</v>
@@ -631,7 +631,7 @@
         <v>80</v>
       </c>
       <c r="K4">
-        <v>53.3</v>
+        <v>53.5</v>
       </c>
       <c r="L4" t="s">
         <v>24</v>
@@ -640,7 +640,7 @@
         <v>25</v>
       </c>
       <c r="N4">
-        <v>51.05762969290213</v>
+        <v>51.54219175917372</v>
       </c>
       <c r="O4" t="s">
         <v>26</v>
@@ -678,7 +678,7 @@
         <v>90</v>
       </c>
       <c r="K5">
-        <v>52.3</v>
+        <v>52.5</v>
       </c>
       <c r="L5" t="s">
         <v>24</v>
@@ -687,7 +687,7 @@
         <v>25</v>
       </c>
       <c r="N5">
-        <v>51.05762969290213</v>
+        <v>51.54219175917372</v>
       </c>
       <c r="O5" t="s">
         <v>26</v>

--- a/DECISION/국장_조선_분석.xlsx
+++ b/DECISION/국장_조선_분석.xlsx
@@ -537,7 +537,7 @@
         <v>80</v>
       </c>
       <c r="K2">
-        <v>59.5</v>
+        <v>59.2</v>
       </c>
       <c r="L2" t="s">
         <v>24</v>
@@ -546,7 +546,7 @@
         <v>25</v>
       </c>
       <c r="N2">
-        <v>51.54219175917372</v>
+        <v>50.60178744571824</v>
       </c>
       <c r="O2" t="s">
         <v>26</v>
@@ -584,7 +584,7 @@
         <v>70</v>
       </c>
       <c r="K3">
-        <v>55.5</v>
+        <v>55.2</v>
       </c>
       <c r="L3" t="s">
         <v>24</v>
@@ -593,7 +593,7 @@
         <v>25</v>
       </c>
       <c r="N3">
-        <v>51.54219175917372</v>
+        <v>50.60178744571824</v>
       </c>
       <c r="O3" t="s">
         <v>26</v>
@@ -631,7 +631,7 @@
         <v>80</v>
       </c>
       <c r="K4">
-        <v>53.5</v>
+        <v>53.2</v>
       </c>
       <c r="L4" t="s">
         <v>24</v>
@@ -640,7 +640,7 @@
         <v>25</v>
       </c>
       <c r="N4">
-        <v>51.54219175917372</v>
+        <v>50.60178744571824</v>
       </c>
       <c r="O4" t="s">
         <v>26</v>
@@ -678,7 +678,7 @@
         <v>90</v>
       </c>
       <c r="K5">
-        <v>52.5</v>
+        <v>52.2</v>
       </c>
       <c r="L5" t="s">
         <v>24</v>
@@ -687,7 +687,7 @@
         <v>25</v>
       </c>
       <c r="N5">
-        <v>51.54219175917372</v>
+        <v>50.60178744571824</v>
       </c>
       <c r="O5" t="s">
         <v>26</v>

--- a/DECISION/국장_조선_분석.xlsx
+++ b/DECISION/국장_조선_분석.xlsx
@@ -546,7 +546,7 @@
         <v>25</v>
       </c>
       <c r="N2">
-        <v>50.60178744571824</v>
+        <v>50.68470204858703</v>
       </c>
       <c r="O2" t="s">
         <v>26</v>
@@ -593,7 +593,7 @@
         <v>25</v>
       </c>
       <c r="N3">
-        <v>50.60178744571824</v>
+        <v>50.68470204858703</v>
       </c>
       <c r="O3" t="s">
         <v>26</v>
@@ -640,7 +640,7 @@
         <v>25</v>
       </c>
       <c r="N4">
-        <v>50.60178744571824</v>
+        <v>50.68470204858703</v>
       </c>
       <c r="O4" t="s">
         <v>26</v>
@@ -687,7 +687,7 @@
         <v>25</v>
       </c>
       <c r="N5">
-        <v>50.60178744571824</v>
+        <v>50.68470204858703</v>
       </c>
       <c r="O5" t="s">
         <v>26</v>

--- a/DECISION/국장_조선_분석.xlsx
+++ b/DECISION/국장_조선_분석.xlsx
@@ -537,7 +537,7 @@
         <v>80</v>
       </c>
       <c r="K2">
-        <v>59.2</v>
+        <v>58.7</v>
       </c>
       <c r="L2" t="s">
         <v>24</v>
@@ -546,7 +546,7 @@
         <v>25</v>
       </c>
       <c r="N2">
-        <v>50.68470204858703</v>
+        <v>49.16024380385575</v>
       </c>
       <c r="O2" t="s">
         <v>26</v>
@@ -584,7 +584,7 @@
         <v>70</v>
       </c>
       <c r="K3">
-        <v>55.2</v>
+        <v>54.7</v>
       </c>
       <c r="L3" t="s">
         <v>24</v>
@@ -593,7 +593,7 @@
         <v>25</v>
       </c>
       <c r="N3">
-        <v>50.68470204858703</v>
+        <v>49.16024380385575</v>
       </c>
       <c r="O3" t="s">
         <v>26</v>
@@ -631,7 +631,7 @@
         <v>80</v>
       </c>
       <c r="K4">
-        <v>53.2</v>
+        <v>52.7</v>
       </c>
       <c r="L4" t="s">
         <v>24</v>
@@ -640,7 +640,7 @@
         <v>25</v>
       </c>
       <c r="N4">
-        <v>50.68470204858703</v>
+        <v>49.16024380385575</v>
       </c>
       <c r="O4" t="s">
         <v>26</v>
@@ -678,7 +678,7 @@
         <v>90</v>
       </c>
       <c r="K5">
-        <v>52.2</v>
+        <v>51.7</v>
       </c>
       <c r="L5" t="s">
         <v>24</v>
@@ -687,7 +687,7 @@
         <v>25</v>
       </c>
       <c r="N5">
-        <v>50.68470204858703</v>
+        <v>49.16024380385575</v>
       </c>
       <c r="O5" t="s">
         <v>26</v>

--- a/DECISION/국장_조선_분석.xlsx
+++ b/DECISION/국장_조선_분석.xlsx
@@ -67,25 +67,25 @@
     <t>HDKSOE</t>
   </si>
   <si>
+    <t>Hanwha Ocean</t>
+  </si>
+  <si>
+    <t>SamsungHvyInd</t>
+  </si>
+  <si>
     <t>HD HYUNDAI MIPO</t>
   </si>
   <si>
-    <t>Hanwha Ocean</t>
-  </si>
-  <si>
-    <t>SamsungHvyInd</t>
-  </si>
-  <si>
     <t>009540.KS</t>
   </si>
   <si>
+    <t>042660.KS</t>
+  </si>
+  <si>
+    <t>010140.KS</t>
+  </si>
+  <si>
     <t>010620.KS</t>
-  </si>
-  <si>
-    <t>042660.KS</t>
-  </si>
-  <si>
-    <t>010140.KS</t>
   </si>
   <si>
     <t>Pattern</t>
@@ -537,7 +537,7 @@
         <v>80</v>
       </c>
       <c r="K2">
-        <v>58.7</v>
+        <v>59.7</v>
       </c>
       <c r="L2" t="s">
         <v>24</v>
@@ -546,7 +546,7 @@
         <v>25</v>
       </c>
       <c r="N2">
-        <v>49.16024380385575</v>
+        <v>52.28493729186943</v>
       </c>
       <c r="O2" t="s">
         <v>26</v>
@@ -563,28 +563,28 @@
         <v>21</v>
       </c>
       <c r="D3">
-        <v>223000</v>
+        <v>108500</v>
       </c>
       <c r="E3">
-        <v>41.6</v>
+        <v>21</v>
       </c>
       <c r="F3">
-        <v>0</v>
+        <v>0.65</v>
       </c>
       <c r="G3">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="H3">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="I3">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="J3">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="K3">
-        <v>54.7</v>
+        <v>53.7</v>
       </c>
       <c r="L3" t="s">
         <v>24</v>
@@ -593,7 +593,7 @@
         <v>25</v>
       </c>
       <c r="N3">
-        <v>49.16024380385575</v>
+        <v>52.28493729186943</v>
       </c>
       <c r="O3" t="s">
         <v>26</v>
@@ -610,25 +610,25 @@
         <v>22</v>
       </c>
       <c r="D4">
-        <v>108500</v>
+        <v>25450</v>
       </c>
       <c r="E4">
-        <v>21</v>
+        <v>44.4</v>
       </c>
       <c r="F4">
-        <v>0.65</v>
+        <v>3.46</v>
       </c>
       <c r="G4">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="H4">
+        <v>60</v>
+      </c>
+      <c r="I4">
         <v>70</v>
       </c>
-      <c r="I4">
-        <v>80</v>
-      </c>
       <c r="J4">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="K4">
         <v>52.7</v>
@@ -640,7 +640,7 @@
         <v>25</v>
       </c>
       <c r="N4">
-        <v>49.16024380385575</v>
+        <v>52.28493729186943</v>
       </c>
       <c r="O4" t="s">
         <v>26</v>
@@ -657,16 +657,16 @@
         <v>23</v>
       </c>
       <c r="D5">
-        <v>25450</v>
+        <v>223000</v>
       </c>
       <c r="E5">
-        <v>44.4</v>
+        <v>26.8</v>
       </c>
       <c r="F5">
-        <v>3.46</v>
+        <v>0</v>
       </c>
       <c r="G5">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="H5">
         <v>60</v>
@@ -675,10 +675,10 @@
         <v>70</v>
       </c>
       <c r="J5">
-        <v>90</v>
+        <v>63</v>
       </c>
       <c r="K5">
-        <v>51.7</v>
+        <v>46.7</v>
       </c>
       <c r="L5" t="s">
         <v>24</v>
@@ -687,7 +687,7 @@
         <v>25</v>
       </c>
       <c r="N5">
-        <v>49.16024380385575</v>
+        <v>52.28493729186943</v>
       </c>
       <c r="O5" t="s">
         <v>26</v>
